--- a/data/SDG4.xlsx
+++ b/data/SDG4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bajk/Documents/GitHub/zhaw-sustainability/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6499596-09DA-134C-9A60-7A4CBD04056F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B288716A-950D-3F4E-A8B7-AFCBF191F101}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1600" windowWidth="27640" windowHeight="16860" activeTab="3" xr2:uid="{BC242A42-3B68-4F4A-8931-5B0DE8392E9D}"/>
+    <workbookView xWindow="1680" yWindow="1600" windowWidth="31040" windowHeight="16720" activeTab="3" xr2:uid="{BC242A42-3B68-4F4A-8931-5B0DE8392E9D}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -3745,7 +3745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AA831D-C373-7341-80F2-F86D00DE62CA}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -5493,7 +5493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B9F688-9057-A043-93C7-FF1AA5DC4F44}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -7241,7 +7241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE69580-7617-3242-B14F-3562207C6F76}">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
